--- a/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
+++ b/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
@@ -16,86 +16,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+  <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>Text2</t>
+  </si>
+  <si>
+    <t>Text3</t>
+  </si>
+  <si>
+    <t>Text4</t>
+  </si>
+  <si>
+    <t>Text5</t>
+  </si>
+  <si>
+    <t>Text6</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Remember me</t>
+  </si>
+  <si>
+    <t>Forgot your password?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE APPS: GPS VEHICLE TRACKING ON THE GO </t>
+  </si>
+  <si>
+    <t>عربي</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Text_contains</t>
+  </si>
+  <si>
+    <t>tranqtesting191@gmail.com</t>
+  </si>
+  <si>
+    <t>welcome1</t>
+  </si>
+  <si>
+    <t>Invalid username/password, please try again!</t>
+  </si>
   <si>
     <t>Tcid</t>
   </si>
   <si>
+    <t>mapview</t>
+  </si>
+  <si>
     <t>Runmode</t>
   </si>
   <si>
+    <t>tranqtesting19@gmail.com</t>
+  </si>
+  <si>
     <t>Logintest</t>
   </si>
   <si>
+    <t>Welcome1</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Text1</t>
-  </si>
-  <si>
-    <t>Text2</t>
-  </si>
-  <si>
-    <t>Text3</t>
-  </si>
-  <si>
-    <t>Text4</t>
-  </si>
-  <si>
-    <t>Text5</t>
-  </si>
-  <si>
-    <t>Text6</t>
-  </si>
-  <si>
-    <t>Sign in</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Remember me</t>
-  </si>
-  <si>
-    <t>Forgot your password?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOBILE APPS: GPS VEHICLE TRACKING ON THE GO </t>
-  </si>
-  <si>
-    <t>عربي</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Text_contains</t>
-  </si>
-  <si>
-    <t>tranqtesting191@gmail.com</t>
-  </si>
-  <si>
-    <t>welcome1</t>
-  </si>
-  <si>
-    <t>Invalid username/password, please try again!</t>
-  </si>
-  <si>
-    <t>mapview</t>
-  </si>
-  <si>
-    <t>tranqtesting19@gmail.com</t>
-  </si>
-  <si>
-    <t>Welcome1</t>
-  </si>
-  <si>
     <t>ADD CLIENT</t>
   </si>
   <si>
@@ -213,104 +213,32 @@
     <t>validation</t>
   </si>
   <si>
-    <t>1tranqtesting1@gmail.com</t>
+    <t>tranq19</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
   <si>
     <t>Murali</t>
   </si>
   <si>
-    <t>(GMT+08:00) Kuala Lumpur, Singapore</t>
-  </si>
-  <si>
-    <t>3 Months</t>
-  </si>
-  <si>
-    <t>You missed to enter First name.</t>
-  </si>
-  <si>
-    <t>testfname1</t>
-  </si>
-  <si>
-    <t>lname1</t>
-  </si>
-  <si>
     <t>(GMT+03:00) Kuwait, Riyadh</t>
   </si>
   <si>
+    <t>You just added a new Client.</t>
+  </si>
+  <si>
+    <t>tele.png</t>
+  </si>
+  <si>
     <t>6 Months</t>
-  </si>
-  <si>
-    <t>You missed to enter Email ID.</t>
-  </si>
-  <si>
-    <t>testfname2</t>
-  </si>
-  <si>
-    <t>lname2</t>
-  </si>
-  <si>
-    <t>123@kk1.co</t>
-  </si>
-  <si>
-    <t>(GMT+04:00) Abu Dhabi, Muscat</t>
-  </si>
-  <si>
-    <t>1 Month</t>
-  </si>
-  <si>
-    <t>To proceed, you must enter mobile number.</t>
-  </si>
-  <si>
-    <t>testfname3</t>
-  </si>
-  <si>
-    <t>lname3</t>
-  </si>
-  <si>
-    <t>456@kk2.co</t>
-  </si>
-  <si>
-    <t>(GMT+04:00) Port Louis</t>
-  </si>
-  <si>
-    <t>1 Year</t>
-  </si>
-  <si>
-    <t>You missed to enter the Company name.</t>
-  </si>
-  <si>
-    <t>testfname4</t>
-  </si>
-  <si>
-    <t>lname4</t>
-  </si>
-  <si>
-    <t>789@kk3.co</t>
-  </si>
-  <si>
-    <t>(GMT+05:30) Chennai, Kolkata, Mumbai, New Delhi</t>
-  </si>
-  <si>
-    <t>You must choose a payment plan to proceed.</t>
-  </si>
-  <si>
-    <t>C:\Users\mkrishnan\Desktop\Images\Logo\tele.png</t>
-  </si>
-  <si>
-    <t>tranq19</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>You just added a new Client.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -323,9 +251,6 @@
     </font>
     <font>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -353,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -375,13 +300,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -428,18 +347,18 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -1463,42 +1382,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1522,52 +1441,52 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -1633,7 +1552,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1645,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -1674,10 +1593,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1703,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -2737,7 +2656,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.0"/>
     <col customWidth="1" min="8" max="8" width="39.14"/>
     <col customWidth="1" min="10" max="10" width="37.71"/>
   </cols>
@@ -2775,166 +2693,63 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="7">
-        <v>62.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>8.086038398E9</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9.400183539E9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.400183539E9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7">
-        <v>235.0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>8.086038398E9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="7">
-        <v>91.0</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="7">
-        <v>61.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>8.086038398E9</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="7">
-        <v>423.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>8.156903074E9</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>9.400183539E9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>95</v>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
+++ b/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
@@ -9,6 +9,8 @@
     <sheet state="visible" name="Forgotpassword" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Profile" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="Addclient" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Addtax" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="Adddevice" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +18,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Text_contains</t>
+  </si>
+  <si>
+    <t>Tcid</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Logintest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>tranqtesting191@gmail.com</t>
+  </si>
+  <si>
+    <t>welcome1</t>
+  </si>
+  <si>
+    <t>Invalid username/password, please try again!</t>
+  </si>
+  <si>
+    <t>mapview</t>
+  </si>
+  <si>
+    <t>tranqtesting19@gmail.com</t>
+  </si>
+  <si>
+    <t>Welcome1</t>
+  </si>
+  <si>
+    <t>ADD CLIENT</t>
+  </si>
   <si>
     <t>Text1</t>
   </si>
@@ -54,51 +101,6 @@
     <t>عربي</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Text_contains</t>
-  </si>
-  <si>
-    <t>tranqtesting191@gmail.com</t>
-  </si>
-  <si>
-    <t>welcome1</t>
-  </si>
-  <si>
-    <t>Invalid username/password, please try again!</t>
-  </si>
-  <si>
-    <t>Tcid</t>
-  </si>
-  <si>
-    <t>mapview</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>tranqtesting19@gmail.com</t>
-  </si>
-  <si>
-    <t>Logintest</t>
-  </si>
-  <si>
-    <t>Welcome1</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>ADD CLIENT</t>
-  </si>
-  <si>
     <t>Forgotpasswordpage</t>
   </si>
   <si>
@@ -213,32 +215,176 @@
     <t>validation</t>
   </si>
   <si>
+    <t>1tranqtesting1@gmail.com</t>
+  </si>
+  <si>
+    <t>Taxdesc</t>
+  </si>
+  <si>
+    <t>Taxamt</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>To proceed, you must enter the device IMEI number.</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>2312111</t>
+  </si>
+  <si>
+    <t>IMEI number you entered seems to be an invalid one, must contain a minimum of 15 digits.</t>
+  </si>
+  <si>
+    <t>330630000010003</t>
+  </si>
+  <si>
+    <t>To proceed, you must choose a device.</t>
+  </si>
+  <si>
+    <t>153960266572501</t>
+  </si>
+  <si>
+    <t>FM Pro*4</t>
+  </si>
+  <si>
+    <t>This IMEI already exists in records,</t>
+  </si>
+  <si>
+    <t>Murali</t>
+  </si>
+  <si>
+    <t>330630000010001</t>
+  </si>
+  <si>
+    <t>(GMT+08:00) Kuala Lumpur, Singapore</t>
+  </si>
+  <si>
+    <t>FMB125</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>IMEI seems to be invalid/duplicate, please re-confirm to proceed.</t>
+  </si>
+  <si>
+    <t>You missed to enter First name.</t>
+  </si>
+  <si>
+    <t>330630000010004</t>
+  </si>
+  <si>
+    <t>TELTONIKA FMA110</t>
+  </si>
+  <si>
+    <t>testfname1</t>
+  </si>
+  <si>
+    <t>lname1</t>
+  </si>
+  <si>
+    <t>You just added a device IMEI.</t>
+  </si>
+  <si>
+    <t>(GMT+03:00) Kuwait, Riyadh</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>You missed to enter Email ID.</t>
+  </si>
+  <si>
+    <t>testfname2</t>
+  </si>
+  <si>
+    <t>lname2</t>
+  </si>
+  <si>
+    <t>123@kk1.co</t>
+  </si>
+  <si>
+    <t>(GMT+04:00) Abu Dhabi, Muscat</t>
+  </si>
+  <si>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>To proceed, you must enter mobile number.</t>
+  </si>
+  <si>
+    <t>testfname3</t>
+  </si>
+  <si>
+    <t>lname3</t>
+  </si>
+  <si>
+    <t>456@kk2.co</t>
+  </si>
+  <si>
+    <t>(GMT+04:00) Port Louis</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>You missed to enter the Company name.</t>
+  </si>
+  <si>
+    <t>testfname4</t>
+  </si>
+  <si>
+    <t>lname4</t>
+  </si>
+  <si>
+    <t>789@kk3.co</t>
+  </si>
+  <si>
+    <t>(GMT+05:30) Chennai, Kolkata, Mumbai, New Delhi</t>
+  </si>
+  <si>
+    <t>You must choose a payment plan to proceed.</t>
+  </si>
+  <si>
+    <t>tele.png</t>
+  </si>
+  <si>
     <t>tranq19</t>
   </si>
   <si>
     <t>testing</t>
   </si>
   <si>
-    <t>Murali</t>
-  </si>
-  <si>
-    <t>(GMT+03:00) Kuwait, Riyadh</t>
-  </si>
-  <si>
     <t>You just added a new Client.</t>
   </si>
   <si>
-    <t>tele.png</t>
-  </si>
-  <si>
-    <t>6 Months</t>
+    <t>tranq20</t>
+  </si>
+  <si>
+    <t>tranqtesting20@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -251,6 +397,14 @@
     </font>
     <font>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -278,12 +432,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -292,22 +443,57 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -335,6 +521,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -347,18 +541,18 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -1382,42 +1576,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1441,58 +1635,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1746,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1564,7 +1758,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -1593,10 +1787,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1622,7 +1816,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -2656,103 +2850,376 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="37.43"/>
     <col customWidth="1" min="8" max="8" width="39.14"/>
     <col customWidth="1" min="10" max="10" width="37.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9.400183539E9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
+      <c r="E2" s="10">
+        <v>62.0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8.086038398E9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10">
+        <v>235.0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>8.086038398E9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="10">
         <v>91.0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="12"/>
+      <c r="G4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8.086038398E9</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="10">
+        <v>423.0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>8.156903074E9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <v>91.0</v>
+      </c>
+      <c r="F7" s="14">
         <v>9.400183539E9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
+      <c r="G7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="14">
+        <v>91.0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>7.907097977E9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.71"/>
+    <col customWidth="1" min="3" max="3" width="77.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
+++ b/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
@@ -11,6 +11,7 @@
     <sheet state="visible" name="Addclient" sheetId="6" r:id="rId8"/>
     <sheet state="visible" name="Addtax" sheetId="7" r:id="rId9"/>
     <sheet state="visible" name="Adddevice" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="Addproduct" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
   <si>
     <t>username</t>
   </si>
@@ -38,6 +39,9 @@
     <t>Runmode</t>
   </si>
   <si>
+    <t>Text1</t>
+  </si>
+  <si>
     <t>Logintest</t>
   </si>
   <si>
@@ -53,42 +57,39 @@
     <t>Invalid username/password, please try again!</t>
   </si>
   <si>
+    <t>Text2</t>
+  </si>
+  <si>
     <t>mapview</t>
   </si>
   <si>
+    <t>Text3</t>
+  </si>
+  <si>
+    <t>Text4</t>
+  </si>
+  <si>
+    <t>Text5</t>
+  </si>
+  <si>
+    <t>Text6</t>
+  </si>
+  <si>
     <t>tranqtesting19@gmail.com</t>
   </si>
   <si>
+    <t>Sign in</t>
+  </si>
+  <si>
     <t>Welcome1</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>ADD CLIENT</t>
   </si>
   <si>
-    <t>Text1</t>
-  </si>
-  <si>
-    <t>Text2</t>
-  </si>
-  <si>
-    <t>Text3</t>
-  </si>
-  <si>
-    <t>Text4</t>
-  </si>
-  <si>
-    <t>Text5</t>
-  </si>
-  <si>
-    <t>Text6</t>
-  </si>
-  <si>
-    <t>Sign in</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Remember me</t>
   </si>
   <si>
@@ -104,6 +105,9 @@
     <t>Forgotpasswordpage</t>
   </si>
   <si>
+    <t>logo</t>
+  </si>
+  <si>
     <t>Blankusername</t>
   </si>
   <si>
@@ -113,6 +117,72 @@
     <t>Invaliduser</t>
   </si>
   <si>
+    <t>Expected_profilename</t>
+  </si>
+  <si>
+    <t>Expected_Email</t>
+  </si>
+  <si>
+    <t>Expected_Mobile</t>
+  </si>
+  <si>
+    <t>Expected_Accountsettings</t>
+  </si>
+  <si>
+    <t>Expected_Languagesettings</t>
+  </si>
+  <si>
+    <t>Expected_Deleteyouraccounts</t>
+  </si>
+  <si>
+    <t>tranqtesting4@gmail.com</t>
+  </si>
+  <si>
+    <t>tranqtesting4</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>AccountSettings</t>
+  </si>
+  <si>
+    <t>LanguageSettings</t>
+  </si>
+  <si>
+    <t>Delete your account</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>isd</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>paymentplan</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
     <t>Invaliduser_expected</t>
   </si>
   <si>
@@ -134,6 +204,9 @@
     <t>tranqtesting121@gmail.com</t>
   </si>
   <si>
+    <t>1tranqtesting1@gmail.com</t>
+  </si>
+  <si>
     <t>Wrong! Please enter a valid username</t>
   </si>
   <si>
@@ -146,76 +219,100 @@
     <t>A verification email has been sent to</t>
   </si>
   <si>
-    <t>Expected_profilename</t>
-  </si>
-  <si>
-    <t>Expected_Email</t>
-  </si>
-  <si>
-    <t>Expected_Mobile</t>
-  </si>
-  <si>
-    <t>Expected_Accountsettings</t>
-  </si>
-  <si>
-    <t>Expected_Languagesettings</t>
-  </si>
-  <si>
-    <t>Expected_Deleteyouraccounts</t>
-  </si>
-  <si>
-    <t>tranqtesting4@gmail.com</t>
-  </si>
-  <si>
-    <t>tranqtesting4</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>AccountSettings</t>
-  </si>
-  <si>
-    <t>LanguageSettings</t>
-  </si>
-  <si>
-    <t>Delete your account</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>isd</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>timezone</t>
-  </si>
-  <si>
-    <t>paymentplan</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>1tranqtesting1@gmail.com</t>
+    <t>Murali</t>
+  </si>
+  <si>
+    <t>(GMT+08:00) Kuala Lumpur, Singapore</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>You missed to enter First name.</t>
+  </si>
+  <si>
+    <t>testfname1</t>
+  </si>
+  <si>
+    <t>lname1</t>
+  </si>
+  <si>
+    <t>(GMT+03:00) Kuwait, Riyadh</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>You missed to enter Email ID.</t>
+  </si>
+  <si>
+    <t>testfname2</t>
+  </si>
+  <si>
+    <t>lname2</t>
+  </si>
+  <si>
+    <t>123@kk1.co</t>
+  </si>
+  <si>
+    <t>(GMT+04:00) Abu Dhabi, Muscat</t>
+  </si>
+  <si>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>To proceed, you must enter mobile number.</t>
+  </si>
+  <si>
+    <t>testfname3</t>
+  </si>
+  <si>
+    <t>lname3</t>
+  </si>
+  <si>
+    <t>456@kk2.co</t>
+  </si>
+  <si>
+    <t>(GMT+04:00) Port Louis</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>You missed to enter the Company name.</t>
+  </si>
+  <si>
+    <t>testfname4</t>
+  </si>
+  <si>
+    <t>lname4</t>
+  </si>
+  <si>
+    <t>789@kk3.co</t>
+  </si>
+  <si>
+    <t>(GMT+05:30) Chennai, Kolkata, Mumbai, New Delhi</t>
+  </si>
+  <si>
+    <t>You must choose a payment plan to proceed.</t>
+  </si>
+  <si>
+    <t>tele.png</t>
+  </si>
+  <si>
+    <t>tranq19</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>You just added a new Client.</t>
+  </si>
+  <si>
+    <t>tranq20</t>
+  </si>
+  <si>
+    <t>tranqtesting20@gmail.com</t>
   </si>
   <si>
     <t>Taxdesc</t>
@@ -227,12 +324,12 @@
     <t>GST</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>IMEI</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -266,118 +363,61 @@
     <t>This IMEI already exists in records,</t>
   </si>
   <si>
-    <t>Murali</t>
-  </si>
-  <si>
     <t>330630000010001</t>
   </si>
   <si>
-    <t>(GMT+08:00) Kuala Lumpur, Singapore</t>
-  </si>
-  <si>
     <t>FMB125</t>
   </si>
   <si>
-    <t>3 Months</t>
-  </si>
-  <si>
     <t>IMEI seems to be invalid/duplicate, please re-confirm to proceed.</t>
   </si>
   <si>
-    <t>You missed to enter First name.</t>
-  </si>
-  <si>
     <t>330630000010004</t>
   </si>
   <si>
     <t>TELTONIKA FMA110</t>
   </si>
   <si>
-    <t>testfname1</t>
-  </si>
-  <si>
-    <t>lname1</t>
-  </si>
-  <si>
     <t>You just added a device IMEI.</t>
   </si>
   <si>
-    <t>(GMT+03:00) Kuwait, Riyadh</t>
-  </si>
-  <si>
-    <t>6 Months</t>
-  </si>
-  <si>
-    <t>You missed to enter Email ID.</t>
-  </si>
-  <si>
-    <t>testfname2</t>
-  </si>
-  <si>
-    <t>lname2</t>
-  </si>
-  <si>
-    <t>123@kk1.co</t>
-  </si>
-  <si>
-    <t>(GMT+04:00) Abu Dhabi, Muscat</t>
-  </si>
-  <si>
-    <t>1 Month</t>
-  </si>
-  <si>
-    <t>To proceed, you must enter mobile number.</t>
-  </si>
-  <si>
-    <t>testfname3</t>
-  </si>
-  <si>
-    <t>lname3</t>
-  </si>
-  <si>
-    <t>456@kk2.co</t>
-  </si>
-  <si>
-    <t>(GMT+04:00) Port Louis</t>
-  </si>
-  <si>
-    <t>1 Year</t>
-  </si>
-  <si>
-    <t>You missed to enter the Company name.</t>
-  </si>
-  <si>
-    <t>testfname4</t>
-  </si>
-  <si>
-    <t>lname4</t>
-  </si>
-  <si>
-    <t>789@kk3.co</t>
-  </si>
-  <si>
-    <t>(GMT+05:30) Chennai, Kolkata, Mumbai, New Delhi</t>
-  </si>
-  <si>
-    <t>You must choose a payment plan to proceed.</t>
-  </si>
-  <si>
-    <t>tele.png</t>
-  </si>
-  <si>
-    <t>tranq19</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>You just added a new Client.</t>
-  </si>
-  <si>
-    <t>tranq20</t>
-  </si>
-  <si>
-    <t>tranqtesting20@gmail.com</t>
+    <t>Productname</t>
+  </si>
+  <si>
+    <t>Productdescription</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>PRO - B 6 Months</t>
+  </si>
+  <si>
+    <t>Vehicle Tracking Pro B 6 Months</t>
+  </si>
+  <si>
+    <t>GST(12%)</t>
+  </si>
+  <si>
+    <t>Name this product to proceed.</t>
+  </si>
+  <si>
+    <t>Product description field must not be left empty.</t>
+  </si>
+  <si>
+    <t>Please choose a subscription plan to proceed.</t>
+  </si>
+  <si>
+    <t>Price field must not be left empty.</t>
+  </si>
+  <si>
+    <t>You just added a new product.</t>
   </si>
 </sst>
 </file>
@@ -396,20 +436,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Cambria"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="9.0"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="3">
@@ -445,38 +485,38 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,6 +569,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -549,10 +593,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -1576,30 +1620,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -1649,44 +1693,44 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1720,28 +1764,28 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1749,25 +1793,25 @@
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1793,48 +1837,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -2856,234 +2900,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>62.0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>8.086038398E9</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9">
+        <v>235.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>8.086038398E9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="9">
+        <v>91.0</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="9">
+        <v>61.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8.086038398E9</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="8" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="9">
+        <v>423.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.156903074E9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10">
-        <v>235.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>8.086038398E9</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="10">
-        <v>91.0</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="10">
-        <v>61.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>8.086038398E9</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="10">
-        <v>423.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>8.156903074E9</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12">
         <v>91.0</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>9.400183539E9</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>94</v>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="14">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="12">
         <v>91.0</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>7.907097977E9</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>94</v>
+      <c r="G8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3103,18 +3147,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3137,81 +3181,81 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
+      <c r="A1" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>75</v>
+      <c r="A4" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>77</v>
+      <c r="A5" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>79</v>
+      <c r="A6" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>83</v>
+      <c r="A7" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>90</v>
+      <c r="A8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3222,4 +3266,150 @@
   </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="28.43"/>
+    <col customWidth="1" min="3" max="3" width="28.14"/>
+    <col customWidth="1" min="6" max="6" width="27.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
+++ b/com.avlview.app/src/main/java/com/avlview/app/testdata/testdata.xlsx
@@ -21,9 +21,51 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
   <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>Text2</t>
+  </si>
+  <si>
+    <t>Text3</t>
+  </si>
+  <si>
+    <t>Text4</t>
+  </si>
+  <si>
+    <t>Text5</t>
+  </si>
+  <si>
+    <t>Text6</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Remember me</t>
+  </si>
+  <si>
+    <t>Forgot your password?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE APPS: GPS VEHICLE TRACKING ON THE GO </t>
+  </si>
+  <si>
+    <t>عربي</t>
+  </si>
+  <si>
+    <t>Tcid</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
+    <t>Runmode</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
@@ -33,15 +75,6 @@
     <t>Text_contains</t>
   </si>
   <si>
-    <t>Tcid</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>Text1</t>
-  </si>
-  <si>
     <t>Logintest</t>
   </si>
   <si>
@@ -57,105 +90,105 @@
     <t>Invalid username/password, please try again!</t>
   </si>
   <si>
-    <t>Text2</t>
-  </si>
-  <si>
     <t>mapview</t>
   </si>
   <si>
-    <t>Text3</t>
-  </si>
-  <si>
-    <t>Text4</t>
-  </si>
-  <si>
-    <t>Text5</t>
-  </si>
-  <si>
-    <t>Text6</t>
-  </si>
-  <si>
     <t>tranqtesting19@gmail.com</t>
   </si>
   <si>
-    <t>Sign in</t>
-  </si>
-  <si>
     <t>Welcome1</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>ADD CLIENT</t>
   </si>
   <si>
-    <t>Remember me</t>
-  </si>
-  <si>
-    <t>Forgot your password?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOBILE APPS: GPS VEHICLE TRACKING ON THE GO </t>
-  </si>
-  <si>
-    <t>عربي</t>
-  </si>
-  <si>
     <t>Forgotpasswordpage</t>
   </si>
   <si>
+    <t>Blankusername</t>
+  </si>
+  <si>
+    <t>Blankusername_Expected</t>
+  </si>
+  <si>
+    <t>Invaliduser</t>
+  </si>
+  <si>
+    <t>Expected_profilename</t>
+  </si>
+  <si>
+    <t>Expected_Email</t>
+  </si>
+  <si>
+    <t>Expected_Mobile</t>
+  </si>
+  <si>
+    <t>Expected_Accountsettings</t>
+  </si>
+  <si>
+    <t>Expected_Languagesettings</t>
+  </si>
+  <si>
+    <t>Expected_Deleteyouraccounts</t>
+  </si>
+  <si>
+    <t>tranqtesting4@gmail.com</t>
+  </si>
+  <si>
+    <t>tranqtesting4</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>AccountSettings</t>
+  </si>
+  <si>
+    <t>LanguageSettings</t>
+  </si>
+  <si>
+    <t>Delete your account</t>
+  </si>
+  <si>
+    <t>Invaliduser_expected</t>
+  </si>
+  <si>
+    <t>Signinpage</t>
+  </si>
+  <si>
+    <t>Validuser</t>
+  </si>
+  <si>
+    <t>Validuser_expected</t>
+  </si>
+  <si>
+    <t>Verification_Email</t>
+  </si>
+  <si>
+    <t>Please enter the username.</t>
+  </si>
+  <si>
+    <t>tranqtesting121@gmail.com</t>
+  </si>
+  <si>
+    <t>Wrong! Please enter a valid username</t>
+  </si>
+  <si>
+    <t>tranqtesting12@gmail.com</t>
+  </si>
+  <si>
+    <t>Message!</t>
+  </si>
+  <si>
+    <t>A verification email has been sent to</t>
+  </si>
+  <si>
     <t>logo</t>
   </si>
   <si>
-    <t>Blankusername</t>
-  </si>
-  <si>
-    <t>Blankusername_Expected</t>
-  </si>
-  <si>
-    <t>Invaliduser</t>
-  </si>
-  <si>
-    <t>Expected_profilename</t>
-  </si>
-  <si>
-    <t>Expected_Email</t>
-  </si>
-  <si>
-    <t>Expected_Mobile</t>
-  </si>
-  <si>
-    <t>Expected_Accountsettings</t>
-  </si>
-  <si>
-    <t>Expected_Languagesettings</t>
-  </si>
-  <si>
-    <t>Expected_Deleteyouraccounts</t>
-  </si>
-  <si>
-    <t>tranqtesting4@gmail.com</t>
-  </si>
-  <si>
-    <t>tranqtesting4</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>AccountSettings</t>
-  </si>
-  <si>
-    <t>LanguageSettings</t>
-  </si>
-  <si>
-    <t>Delete your account</t>
-  </si>
-  <si>
     <t>firstname</t>
   </si>
   <si>
@@ -183,42 +216,9 @@
     <t>validation</t>
   </si>
   <si>
-    <t>Invaliduser_expected</t>
-  </si>
-  <si>
-    <t>Signinpage</t>
-  </si>
-  <si>
-    <t>Validuser</t>
-  </si>
-  <si>
-    <t>Validuser_expected</t>
-  </si>
-  <si>
-    <t>Verification_Email</t>
-  </si>
-  <si>
-    <t>Please enter the username.</t>
-  </si>
-  <si>
-    <t>tranqtesting121@gmail.com</t>
-  </si>
-  <si>
     <t>1tranqtesting1@gmail.com</t>
   </si>
   <si>
-    <t>Wrong! Please enter a valid username</t>
-  </si>
-  <si>
-    <t>tranqtesting12@gmail.com</t>
-  </si>
-  <si>
-    <t>Message!</t>
-  </si>
-  <si>
-    <t>A verification email has been sent to</t>
-  </si>
-  <si>
     <t>Murali</t>
   </si>
   <si>
@@ -276,21 +276,33 @@
     <t>(GMT+04:00) Port Louis</t>
   </si>
   <si>
+    <t>Taxdesc</t>
+  </si>
+  <si>
     <t>1 Year</t>
   </si>
   <si>
     <t>You missed to enter the Company name.</t>
   </si>
   <si>
+    <t>Taxamt</t>
+  </si>
+  <si>
     <t>testfname4</t>
   </si>
   <si>
     <t>lname4</t>
   </si>
   <si>
+    <t>GST</t>
+  </si>
+  <si>
     <t>789@kk3.co</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>(GMT+05:30) Chennai, Kolkata, Mumbai, New Delhi</t>
   </si>
   <si>
@@ -315,18 +327,6 @@
     <t>tranqtesting20@gmail.com</t>
   </si>
   <si>
-    <t>Taxdesc</t>
-  </si>
-  <si>
-    <t>Taxamt</t>
-  </si>
-  <si>
-    <t>GST</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>IMEI</t>
   </si>
   <si>
@@ -396,10 +396,10 @@
     <t>Tax</t>
   </si>
   <si>
-    <t>PRO - B 6 Months</t>
-  </si>
-  <si>
-    <t>Vehicle Tracking Pro B 6 Months</t>
+    <t>Lite - 3 Months</t>
+  </si>
+  <si>
+    <t>Vehicle Tracking Lite 3 Months</t>
   </si>
   <si>
     <t>GST(12%)</t>
@@ -436,10 +436,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Cambria"/>
     </font>
     <font>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -479,41 +479,41 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -585,18 +585,18 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -1620,42 +1620,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1679,58 +1679,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1764,54 +1764,54 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>54</v>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1831,54 +1831,54 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -2900,43 +2900,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>53</v>
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9">
         <v>62.0</v>
@@ -2958,11 +2958,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="10"/>
@@ -2986,11 +2986,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -3014,11 +3014,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -3035,22 +3035,22 @@
         <v>84</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="9">
         <v>423.0</v>
@@ -3062,33 +3062,33 @@
         <v>66</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13">
         <v>91.0</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>9.400183539E9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -3097,27 +3097,27 @@
       <c r="I7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>95</v>
+      <c r="J7" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="12">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="13">
         <v>91.0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>7.907097977E9</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -3126,8 +3126,8 @@
       <c r="I8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>95</v>
+      <c r="J8" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3147,18 +3147,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3181,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3192,14 +3192,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="1"/>
@@ -3217,7 +3217,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="1"/>
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3237,7 +3237,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="14" t="s">
